--- a/ProjectDocs/Test Case Document - Compucom Tracker.xlsx
+++ b/ProjectDocs/Test Case Document - Compucom Tracker.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoja\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="14955" windowHeight="8445" tabRatio="603"/>
+    <workbookView windowWidth="15990" windowHeight="8355" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="CBT_Test Cases" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,120 +21,110 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Please Enter Name Of The Project.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Enter The Project Code with respect to Project Name.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
+    <comment ref="F3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Mapped to the Estimation Priority</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Test Case Reviewed by</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Type of Testing 
@@ -150,24 +135,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0">
+    <comment ref="F7" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 None
@@ -175,39 +158,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
  and Date of Execution.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1" shapeId="0">
+    <comment ref="A16" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">CSL:
 </t>
@@ -215,32 +195,29 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Date of Execution.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="1" shapeId="0">
+    <comment ref="C16" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>CSL:</t>
         </r>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Test Executed By</t>
@@ -252,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>Project Name</t>
   </si>
@@ -269,6 +246,9 @@
     <t>Test Case Ref #:</t>
   </si>
   <si>
+    <t>COMPUCOM TRACKER</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -281,6 +261,9 @@
     <t>Regression (Yes/No)</t>
   </si>
   <si>
+    <t>Test for the functionality of the Application</t>
+  </si>
+  <si>
     <t>Prepared By</t>
   </si>
   <si>
@@ -342,510 +325,645 @@
   </si>
   <si>
     <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Cycle 1</t>
-  </si>
-  <si>
-    <t>Cycle 2</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Action Taken if steps failed</t>
-  </si>
-  <si>
-    <t>Defect #</t>
   </si>
   <si>
     <t>Action / Input data
 (Test Data)</t>
   </si>
   <si>
-    <t>Test for the functionality of the website</t>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Cycle 1</t>
+  </si>
+  <si>
+    <t>Cycle 2</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Action Taken if steps failed</t>
+  </si>
+  <si>
+    <t>Defect #</t>
+  </si>
+  <si>
+    <t>Test fot the display and graphics(UI Testing)</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DISPLAY_TC001</t>
   </si>
   <si>
     <t>Step 1: Go to the home page.                                       Step 2: View the home page.</t>
   </si>
   <si>
+    <t>The website should be a english portal.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DISPLAY_TC002</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the home page.                                      Step 2: View the home page.</t>
+  </si>
+  <si>
+    <t>There should be a  logo on top of every webpage.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DISPLAY_TC003</t>
+  </si>
+  <si>
     <t>Step 1:Go to the home page.                                       Step 2:View the home page.</t>
   </si>
   <si>
+    <t>There should be a menu bar on the top of home page or once you login from home page containing the other links of the website.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_TC004</t>
+  </si>
+  <si>
+    <t>There should be a login section on the right side of the window.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_TC005</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the track page.                                       Step 2:View the live track page/section.</t>
+  </si>
+  <si>
+    <t>It should have a map showing the devices being Tracked and the name of the owner of the device under Track Units</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_TC006</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the track page.                                       Step 2:View the history tab/page.</t>
+  </si>
+  <si>
+    <t>It should have a  map, mapping the devices current location and the location on the selected date/dates. It should have options to select the date for which user wants to see the history and to download the history as CSV or Html file</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_TC007</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the User Profile page.                                       Step 2:View the page.</t>
+  </si>
+  <si>
+    <t>It should have an Edit page/tab to edit the user profile</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_TC008</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the User Profile page.                                     Step 2:View the page.</t>
+  </si>
+  <si>
+    <t>It should have a Tracker Config page/tab to Add/Edit/Delete the device/devices to being tracked</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_ADMIN_TC009</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the Admin page.                                       Step 2:View the Admin page.</t>
+  </si>
+  <si>
+    <t>It should have a table showing User Name, User Id, Registeration date, Last login status and the admin specific preveliges to add, track, login, view profile and delete other users of the system.</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the Dashboard page.                                       Step 2:View the Dashboard page.</t>
+  </si>
+  <si>
+    <t>It should have a table showing device owner's name, mobile number, Last active status(dfate,time and location), color coded durays in days when the device was last active and the facility to send SMSs and Notifications to the device.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_ADMIN_TC0010</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the Trip Report page.                                       Step 2:View the Trip Report  page.</t>
+  </si>
+  <si>
+    <t>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_DISPLAY_ADMIN_TC0011</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the Unregistered page.                                       Step 2:View the Unregistered  page.</t>
+  </si>
+  <si>
+    <t>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>CSL_TRACKER_USERDISPLAY_TC0012</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the home page.                                       Step 2: View the home page.                        Step 3: Login as a user</t>
+  </si>
+  <si>
+    <t>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</t>
+  </si>
+  <si>
+    <t>Test for the Home Page functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_HOME_TC001</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the home page.                                                              Step 3: Enter Login details</t>
+  </si>
+  <si>
+    <t>It should open Live Tracking Page</t>
+  </si>
+  <si>
+    <t>Test for User Registeration</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ADMIN_TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to Admin page.                                               Step 2: View the Admin page     </t>
+  </si>
+  <si>
+    <t>The admin page should have a table displaying User Name, User Id, Registeration date, Last login status and the admin specific preveliges to add, track, login, view profile and delete other users of the system.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ADMIN_TC002</t>
+  </si>
+  <si>
+    <t>In Admin page there should be buttons like First, Prev, Next and Last to move to the user list pages</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ADMIN_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to Admin page.                                               Step 2: View the Admin page.                          Step 3: Click on Add User.       </t>
+  </si>
+  <si>
+    <t>User Name, Email Id, Password, User Type, PDA Credit, Select Time Zone</t>
+  </si>
+  <si>
+    <t>In Admin page there should be an Add User option for adding new user related activites</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ADMIN_TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to admin page.                                               Step 2: View the Admin page.                     Step 3: Click on Back .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the add user form should contain the Back option for going back </t>
+  </si>
+  <si>
+    <t>Test for Tracking Device Registration Module functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the unregistered page.                                  Step 2: View the unregistered page.</t>
+  </si>
+  <si>
+    <t>The unregistered page contain the list of all unregistered users .</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC002</t>
+  </si>
+  <si>
+    <t>Step 1:   Go to the unregistered page.                                  Step 2: Click on the register button to register a particular user .</t>
+  </si>
+  <si>
+    <t>Clicking on register button will register the particular user.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC003</t>
+  </si>
+  <si>
+    <t>Step 1:   Go to the unregistered page.                                  Step 2: Click on the remove button to remove a particular user .</t>
+  </si>
+  <si>
+    <t>Clicking on remove  button will remove the particular user.</t>
+  </si>
+  <si>
+    <t>Test for Live Tracking Module functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page.</t>
+  </si>
+  <si>
+    <t>It should have a map displaying three views map, satellite and earth.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC002</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page. Step 3: Selecct any one ow multiple Track Units</t>
+  </si>
+  <si>
+    <t>It should have properly a working check-box selection options facilitating selection of Track-Units</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC003</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page. Step 3: Check a radio button to turn on/ turn off location auto update option</t>
+  </si>
+  <si>
+    <t>It should check the desired radio button</t>
+  </si>
+  <si>
+    <t>Test for Tracking History Module Functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Click on the any of map view.</t>
+  </si>
+  <si>
+    <t>It should display the map mapping current location with the location based on the selected date/dates in whichever view selected.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC002</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Select a Tracking unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be able to select the desired tracing unit out of the drop-down list. </t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC003</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Select a Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be able to select the desired tracking date from the calendar </t>
+  </si>
+  <si>
+    <t>Test for the Dashboard module functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DASHBOARD_TC001</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the dashboard page.                                        Step 2:Select the number of days from the dropdown to check the tracking units who  is active during those days .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The dropdown should be working properly and to select the number of days.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DASHBOARD_TC002</t>
+  </si>
+  <si>
+    <t>Step 1:Go to the dashboard page.                                        Step 2:Select the dropdown for a particular group.</t>
+  </si>
+  <si>
+    <t>The dropdown should be working properly and to be able to select the user group.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DASHBOARD_TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to the dashboard page.                                       </t>
+  </si>
+  <si>
+    <t>Dashboard should be displaying the registered user devices with all details like phone muber and last location based on the their last active status in the color code scheme. section.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DASHBOARD_TC004</t>
+  </si>
+  <si>
+    <t>Step 1: Go to the dashboard page.                                      Step 2. Click on the SMS button.</t>
+  </si>
+  <si>
+    <t>It should be able to send an sms to the user device</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_DASHBOARD_TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to the dashboard page.                                      Step 2. Click on the Notication button </t>
+  </si>
+  <si>
+    <t>It should be able to send a notification to the user device.</t>
+  </si>
+  <si>
+    <t>Test for Trip Report Module  functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to trip report page.                                              Step 2: Click on the user device selection dropdown list.</t>
+  </si>
+  <si>
+    <t>user device selection dropdown list should let the user select user device name.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Go to trip report page.                                              Step 2: Click on the FROM date selection dropdown list.                                    </t>
+  </si>
+  <si>
+    <t>FROM date selection dropdown list should let the user select the FROM date</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC003</t>
+  </si>
+  <si>
+    <t>Step 1: Go to trip report page.                                              Step 2: Click on the TO date selection dropdown list.  .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO date selection dropdown list is working properly.  Trip report of the selected user device should appear in the display section.                                                             </t>
+  </si>
+  <si>
+    <t>Test for SMS Integration Module  functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_SMSINTEGRATION_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to Dashboard page.                                              Step 2: Click on the SMS button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should open a editable message window with a by default message.                                                             </t>
+  </si>
+  <si>
+    <t>Test for Mobile Notification Module  functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_MOBILENOTIFICATION_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to Dashboard page.                                               Step 2: Click on the Notification button.</t>
+  </si>
+  <si>
+    <t>Test for Android App (Basic) Module  functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter  phone number</t>
+  </si>
+  <si>
+    <t>It should be able to take only numbers. Anything other type of data should be rejected.</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC002</t>
+  </si>
+  <si>
+    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter the phone number                   Step 3: Click on Tracker is Off button given at the bottom of the app screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be able to first prompt you to turn on your GPS. in case its off. </t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</t>
+  </si>
+  <si>
+    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter the phone number                   Step 3: Click on Tracker is Off button given at the bottom of the app screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be able to sent an OTP request to the given number to check the whether the given phone number is of the same user device or not. If its pass then it should turn on the device GPS Tracker.                              </t>
+  </si>
+  <si>
+    <t>Test for Mobile Notification Display Module  functionalities</t>
+  </si>
+  <si>
+    <t>CSL_TRACKER_CHECK_NOTIFICATIONDISPLAY_TC001</t>
+  </si>
+  <si>
+    <t>Step 1: Go to Dashboard page.                                               Step 2: Click on the Notification button.  Step 3: Check COMPUCOM TRACKER Notification in your phone</t>
+  </si>
+  <si>
+    <t>COMPUCOM TRACKER Notification should appear in tracking phone.</t>
+  </si>
+  <si>
     <t>Total Number Of Test Cases</t>
   </si>
   <si>
     <t>Succes Of Test Cases</t>
   </si>
   <si>
+    <t>Failure Of Test Cases</t>
+  </si>
+  <si>
     <t>Evaluation Graph</t>
-  </si>
-  <si>
-    <t>COMPUCOM GPS TRACKER</t>
-  </si>
-  <si>
-    <t>Failure Of Test Cases</t>
-  </si>
-  <si>
-    <t>The website should be a english portal.</t>
-  </si>
-  <si>
-    <t>There should be a  logo on top of every webpage.</t>
-  </si>
-  <si>
-    <t>There should be a login section on the right side of the window.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the home page.                                      Step 2: View the home page.</t>
-  </si>
-  <si>
-    <t>It should open Live Tracking Page</t>
-  </si>
-  <si>
-    <t>Test fot the display and graphics(UI Testing)</t>
-  </si>
-  <si>
-    <t>It should have a map showing the devices being Tracked and the name of the owner of the device under Track Units</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the track page.                                       Step 2:View the history tab/page.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the User Profile page.                                       Step 2:View the page.</t>
-  </si>
-  <si>
-    <t>It should have a  map, mapping the devices current location and the location on the selected date/dates. It should have options to select the date for which user wants to see the history and to download the history as CSV or Html file</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the Admin page.                                       Step 2:View the Admin page.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the Dashboard page.                                       Step 2:View the Dashboard page.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the Trip Report page.                                       Step 2:View the Trip Report  page.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the home page.                                                              Step 3: Enter Login details</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the Unregistered page.                                       Step 2:View the Unregistered  page.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the track page.                                       Step 2:View the live track page/section.</t>
-  </si>
-  <si>
-    <t>Step 1:Go to the User Profile page.                                     Step 2:View the page.</t>
-  </si>
-  <si>
-    <t>It should have an Edit page/tab to edit the user profile</t>
-  </si>
-  <si>
-    <t>It should have a Tracker Config page/tab to Add/Edit/Delete the device/devices to being tracked</t>
-  </si>
-  <si>
-    <t>It should have a table showing User Name, User Id, Registeration date, Last login status and the admin specific preveliges to add, track, login, view profile and delete other users of the system.</t>
-  </si>
-  <si>
-    <t>It should have a table showing device owner's name, mobile number, Last active status(dfate,time and location), color coded durays in days when the device was last active and the facility to send SMSs and Notifications to the device.</t>
-  </si>
-  <si>
-    <t>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the unregistered page.                                  Step 2: View the unregistered page.</t>
-  </si>
-  <si>
-    <t>The unregistered page contain the list of all unregistered users .</t>
-  </si>
-  <si>
-    <t>Step 1:   Go to the unregistered page.                                  Step 2: Click on the register button to register a particular user .</t>
-  </si>
-  <si>
-    <t>Clicking on register button will register the particular user.</t>
-  </si>
-  <si>
-    <t>Step 1:   Go to the unregistered page.                                  Step 2: Click on the remove button to remove a particular user .</t>
-  </si>
-  <si>
-    <t>Clicking on remove  button will remove the particular user.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page.</t>
-  </si>
-  <si>
-    <t>Test for User Registeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Step 1:Go to the dashboard page.                                        Step 2:Select the dropdown for a particular group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to the dashboard page.                                       </t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC001</t>
-  </si>
-  <si>
-    <t>Step 1: Go to trip report page.                                              Step 2: Click on the user device selection dropdown list.</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to trip report page.                                              Step 2: Click on the FROM date selection dropdown list.                                    </t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRIPREPORT_TC003</t>
-  </si>
-  <si>
-    <t>Step 1: Go to trip report page.                                              Step 2: Click on the TO date selection dropdown list.  .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO date selection dropdown list is working properly.  Trip report of the selected user device should appear in the display section.                                                             </t>
-  </si>
-  <si>
-    <t>Test for Tracking Device Registration Module functionalities</t>
-  </si>
-  <si>
-    <t>Test for Live Tracking Module functionalities</t>
-  </si>
-  <si>
-    <t>Test for the Home Page functionalities</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ADMIN_TC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to Admin page.                                               Step 2: View the Admin page     </t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ADMIN_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ADMIN_TC003</t>
-  </si>
-  <si>
-    <t>User Name, Email Id, Password, User Type, PDA Credit, Select Time Zone</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ADMIN_TC004</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_HOME_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_TC008</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_TC007</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_TC006</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_TC005</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_TC004</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DISPLAY_TC003</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DISPLAY_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DISPLAY_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_UNREGISTERED_TC003</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DASHBOARD_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DASHBOARD_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DASHBOARD_TC003</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DASHBOARD_TC004</t>
-  </si>
-  <si>
-    <t>There should be a menu bar on the top of home page or once you login from home page containing the other links of the website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to admin page.                                               Step 2: View the Admin page.                     Step 3: Click on Back .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to Admin page.                                               Step 2: View the Admin page.                          Step 3: Click on Add User.       </t>
-  </si>
-  <si>
-    <t>In Admin page there should be an Add User option for adding new user related activites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the add user form should contain the Back option for going back </t>
-  </si>
-  <si>
-    <t>Test for Tracking History Module Functionalities</t>
-  </si>
-  <si>
-    <t>Test for the Dashboard module functionalities</t>
-  </si>
-  <si>
-    <t>Test for Trip Report Module  functionalities</t>
-  </si>
-  <si>
-    <t>Test for SMS Integration Module  functionalities</t>
-  </si>
-  <si>
-    <t>Test for Android App (Basic) Module  functionalities</t>
-  </si>
-  <si>
-    <t>Test for Mobile Notification Module  functionalities</t>
-  </si>
-  <si>
-    <t>Step 1: Go to Dashboard page.                                              Step 2: Click on the SMS button.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to Dashboard page.                                               Step 2: Click on the Notification button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should open a editable message window with a by default message.                                                             </t>
-  </si>
-  <si>
-    <t>In Admin page there should be buttons like First, Prev, Next and Last to move to the user list pages</t>
-  </si>
-  <si>
-    <t>The admin page should have a table displaying User Name, User Id, Registeration date, Last login status and the admin specific preveliges to add, track, login, view profile and delete other users of the system.</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_LIVETRACKING_TC003</t>
-  </si>
-  <si>
-    <t>It should have a map displaying three views map, satellite and earth.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page. Step 3: Selecct any one ow multiple Track Units</t>
-  </si>
-  <si>
-    <t>It should have properly a working check-box selection options facilitating selection of Track-Units</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the LIVE section/page. Step 3: Check a radio button to turn on/ turn off location auto update option</t>
-  </si>
-  <si>
-    <t>It should check the desired radio button</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Click on the any of map view.</t>
-  </si>
-  <si>
-    <t>It should display the map mapping current location with the location based on the selected date/dates in whichever view selected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be able to select the desired tracing unit out of the drop-down list. </t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Select a Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be able to select the desired tracking date from the calendar </t>
-  </si>
-  <si>
-    <t>Step 1:Go to the dashboard page.                                        Step 2:Select the number of days from the dropdown to check the tracking units who  is active during those days .</t>
-  </si>
-  <si>
-    <t>The dropdown should be working properly and to select the number of days.</t>
-  </si>
-  <si>
-    <t>The dropdown should be working properly and to be able to select the user group.</t>
-  </si>
-  <si>
-    <t>Dashboard should be displaying the registered user devices with all details like phone muber and last location based on the their last active status in the color code scheme. section.</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the dashboard page.                                      Step 2. Click on the SMS button.</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_DASHBOARD_TC005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Go to the dashboard page.                                      Step 2. Click on the Notication button </t>
-  </si>
-  <si>
-    <t>It should be able to send an sms to the user device</t>
-  </si>
-  <si>
-    <t>It should be able to send a notification to the user device.</t>
-  </si>
-  <si>
-    <t>FROM date selection dropdown list should let the user select the FROM date</t>
-  </si>
-  <si>
-    <t>user device selection dropdown list should let the user select user device name.</t>
-  </si>
-  <si>
-    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter  phone number</t>
-  </si>
-  <si>
-    <t>It should be able to take only numbers. Anything other type of data should be rejected.</t>
-  </si>
-  <si>
-    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter the phone number                   Step 3: Click on Tracker is Off button given at the bottom of the app screen</t>
-  </si>
-  <si>
-    <t>Step 1: Open the COMPUCOM TRACKER  app downloaded in your phone.                                        Step 2: Enter the phone number                   Step 3: Click on Tracker is Off button given at the bottom of the app screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be able to first prompt you to turn on your GPS. in case its off. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be able to sent an OTP request to the given number to check the whether the given phone number is of the same user device or not. If its pass then it should turn on the device GPS Tracker.                              </t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_MOBILENOTIFICATION_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_SMSINTEGRATION_TC001</t>
-  </si>
-  <si>
-    <t>Test for Mobile Notification Display Module  functionalities</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_NOTIFICATIONDISPLAY_TC001</t>
-  </si>
-  <si>
-    <t>Step 1: Go to Dashboard page.                                               Step 2: Click on the Notification button.  Step 3: Check COMPUCOM TRACKER Notification in your phone</t>
-  </si>
-  <si>
-    <t>COMPUCOM TRACKER Notification should appear in tracking phone.</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC001</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC002</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_CHECK_TRACKINGHIOSTORY_TC003</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the Track page.                                   Step 2: View the History section/page.      Step 3: Select a Tracking unit</t>
-  </si>
-  <si>
-    <t>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_USERDISPLAY_TC0012</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_ADMIN_TC009</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_ADMIN_TC0010</t>
-  </si>
-  <si>
-    <t>CSL_TRACKER_DISPLAY_ADMIN_TC0011</t>
-  </si>
-  <si>
-    <t>Step 1: Go to the home page.                                       Step 2: View the home page.                        Step 3: Login as a user</t>
-  </si>
-  <si>
-    <t>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -855,12 +973,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -870,42 +1168,81 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,219 +1250,403 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="20"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,16 +1660,24 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
               <a:t>COMPUCOM TRACKER</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1174,6 +1703,238 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'CBT_Test Cases'!$A$19:$G$75</c:f>
@@ -1217,7 +1978,7 @@
                     <c:v>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to r</c:v>
+                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</c:v>
@@ -1319,6 +2080,7 @@
                     <c:v> </c:v>
                   </c:pt>
                 </c:lvl>
+                <c:lvl/>
                 <c:lvl>
                   <c:pt idx="56">
                     <c:v>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</c:v>
@@ -1654,11 +2416,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFC0-40B6-A9DD-207BC4C8DF3B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1668,9 +2425,244 @@
               <c:f>'CBT_Test Cases'!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'CBT_Test Cases'!$A$19:$G$75</c:f>
@@ -1714,7 +2706,7 @@
                     <c:v>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to r</c:v>
+                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</c:v>
@@ -1816,6 +2808,7 @@
                     <c:v> </c:v>
                   </c:pt>
                 </c:lvl>
+                <c:lvl/>
                 <c:lvl>
                   <c:pt idx="56">
                     <c:v>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</c:v>
@@ -2151,11 +3144,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFC0-40B6-A9DD-207BC4C8DF3B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2165,9 +3153,244 @@
               <c:f>'CBT_Test Cases'!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'CBT_Test Cases'!$A$19:$G$75</c:f>
@@ -2211,7 +3434,7 @@
                     <c:v>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to r</c:v>
+                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</c:v>
@@ -2313,6 +3536,7 @@
                     <c:v> </c:v>
                   </c:pt>
                 </c:lvl>
+                <c:lvl/>
                 <c:lvl>
                   <c:pt idx="56">
                     <c:v>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</c:v>
@@ -2657,11 +3881,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFC0-40B6-A9DD-207BC4C8DF3B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2671,9 +3890,244 @@
               <c:f>'CBT_Test Cases'!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'CBT_Test Cases'!$A$19:$G$75</c:f>
@@ -2717,7 +4171,7 @@
                     <c:v>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to r</c:v>
+                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</c:v>
@@ -2819,6 +4273,7 @@
                     <c:v> </c:v>
                   </c:pt>
                 </c:lvl>
+                <c:lvl/>
                 <c:lvl>
                   <c:pt idx="56">
                     <c:v>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</c:v>
@@ -3154,11 +4609,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EFC0-40B6-A9DD-207BC4C8DF3B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3168,9 +4618,244 @@
               <c:f>'CBT_Test Cases'!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="56"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'CBT_Test Cases'!$A$19:$G$75</c:f>
@@ -3214,7 +4899,7 @@
                     <c:v>It should have an option to check the trip report of the device selected(by its owner's name) and the duration for which user wants to track it.</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to r</c:v>
+                    <c:v>It should have the table showing the details of the device who has recently downloaded the app in their smartphones and the waiting to get registered. It should have a column displaying last device status(date,time and location) and options for admin to register and remove.</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>It should have only four options in main menu(Home, Track, User Profile and Logout) unlike Admin view where four other admin spoecific menu options are their(Admin, Dashboard, Trip Report &amp; Unregistered)</c:v>
@@ -3316,6 +5001,7 @@
                     <c:v> </c:v>
                   </c:pt>
                 </c:lvl>
+                <c:lvl/>
                 <c:lvl>
                   <c:pt idx="56">
                     <c:v>CSL_TRACKER_CHECK_ANDROIDAPP_TC003</c:v>
@@ -3651,11 +5337,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EFC0-40B6-A9DD-207BC4C8DF3B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3673,21 +5354,46 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3701,14 +5407,14 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2333625" y="48139350"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3764,7 +5470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3799,7 +5505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4002,1463 +5708,1418 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28" style="6" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34.4285714285714" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.14285714285714" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="4"/>
+    <col min="5" max="5" width="8.28571428571429" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.7142857142857" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.8571428571429" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.8571428571429" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.2857142857143" style="4" customWidth="1"/>
+    <col min="11" max="11" width="29.5714285714286" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" customHeight="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" ht="25.5" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" ht="72" customHeight="1" spans="1:12">
+      <c r="A21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" ht="72" customHeight="1" spans="1:12">
+      <c r="A22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" ht="72" customHeight="1" spans="1:12">
+      <c r="A23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" ht="72" customHeight="1" spans="1:12">
+      <c r="A24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="75" customHeight="1" spans="1:12">
+      <c r="A26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="78" customHeight="1" spans="1:12">
+      <c r="A30" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+        <v>67</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A31" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="93" customHeight="1" spans="1:12">
+      <c r="A32" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+      <c r="A33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A35" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A38" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A39" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="81" customHeight="1" spans="1:12">
+      <c r="A40" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="34"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:12">
+      <c r="A42" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:12">
+      <c r="A43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="69.75" customHeight="1" spans="1:12">
+      <c r="A44" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="34"/>
+    </row>
+    <row r="46" ht="84" customHeight="1" spans="1:12">
+      <c r="A46" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="84" customHeight="1" spans="1:12">
+      <c r="A47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="84" customHeight="1" spans="1:12">
+      <c r="A48" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="34"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="84" customHeight="1" spans="1:12">
+      <c r="A50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="84" customHeight="1" spans="1:12">
+      <c r="A51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="84" customHeight="1" spans="1:12">
+      <c r="A52" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:12">
+      <c r="A53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A54" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A56" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="70.5" customHeight="1" spans="1:12">
+      <c r="A58" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="34"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="83.25" customHeight="1" spans="1:12">
+      <c r="A60" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A61" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A63" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="34"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A64" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="34"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A66" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A67" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="34"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A68" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="91.5" customHeight="1" spans="1:12">
+      <c r="A69" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A70" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="34"/>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="85.5" customHeight="1" spans="1:12">
+      <c r="A72" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" s="35" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="40" t="s">
+      <c r="B74" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" ht="114.75" spans="1:4">
+      <c r="A75" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32" t="s">
+      <c r="B75" s="4">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="35" t="s">
         <v>176</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="33"/>
-    </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="1:12" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" spans="1:12" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" spans="1:12" s="26" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-    </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" s="23" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="1:12" s="23" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" s="23" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="22"/>
-    </row>
-    <row r="48" spans="1:12" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:12" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="22"/>
-    </row>
-    <row r="52" spans="1:12" s="23" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="1:12" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="1:12" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-    </row>
-    <row r="56" spans="1:12" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" s="23" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-    </row>
-    <row r="58" spans="1:12" s="35" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-    </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="1:12" s="23" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-    </row>
-    <row r="62" spans="1:12" s="23" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" s="26" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" s="26" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" s="26" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-    </row>
-    <row r="69" spans="1:12" s="35" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-    </row>
-    <row r="70" spans="1:12" s="26" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" s="35" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="6">
-        <v>2</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A71:K71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -5466,69 +7127,110 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A41:K41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="A53:K53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="B72:E72"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="1" scale="57" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -5536,13 +7238,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ProjectDocs/Test Case Document - Compucom Tracker.xlsx
+++ b/ProjectDocs/Test Case Document - Compucom Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18620" windowHeight="7760" tabRatio="603"/>
+    <workbookView windowWidth="19100" windowHeight="7760" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="CBT_Test Cases v1.1" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
     <t>To check FROM calendar functionality</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </t>
+    <t xml:space="preserve">Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </t>
   </si>
   <si>
     <t xml:space="preserve">It should let admin user select the FROM date from the calendar and shall also update the trip report as per the selected dates. </t>
@@ -1051,7 +1051,7 @@
     <t>To check TO calendar functionality</t>
   </si>
   <si>
-    <t>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</t>
+    <t>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</t>
   </si>
   <si>
     <t xml:space="preserve">FROM and TO labeled date input calenadars shall appear and shall let user select a date, month and year. Trip report of the selected tracking device for the seleted duration shall immediately appear in the display section.                                                             </t>
@@ -1293,10 +1293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1311,19 +1311,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -1331,33 +1318,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -1369,11 +1331,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1383,9 +1365,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="23"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -1398,14 +1380,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -1417,9 +1399,27 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -1467,61 +1467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,13 +1485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,6 +1498,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,37 +1661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,11 +1709,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1758,18 +1749,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1778,7 +1778,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1787,133 +1787,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7172,7 +7172,7 @@
                   <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Select a tracking device from the "Trip Report of" dropdown list                                            </c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
                 </c:pt>
                 <c:pt idx="393">
                   <c:v/>
@@ -7427,7 +7427,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
                 </c:pt>
                 <c:pt idx="477">
                   <c:v/>
@@ -13466,7 +13466,7 @@
                   <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Select a tracking device from the "Trip Report of" dropdown list                                            </c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
                 </c:pt>
                 <c:pt idx="393">
                   <c:v/>
@@ -13721,7 +13721,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
                 </c:pt>
                 <c:pt idx="477">
                   <c:v/>
@@ -19760,7 +19760,7 @@
                   <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Select a tracking device from the "Trip Report of" dropdown list                                            </c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
                 </c:pt>
                 <c:pt idx="393">
                   <c:v/>
@@ -20015,7 +20015,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
                 </c:pt>
                 <c:pt idx="477">
                   <c:v/>
@@ -26054,7 +26054,7 @@
                   <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Select a tracking device from the "Trip Report of" dropdown list                                            </c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
                 </c:pt>
                 <c:pt idx="393">
                   <c:v/>
@@ -26309,7 +26309,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
                 </c:pt>
                 <c:pt idx="477">
                   <c:v/>
@@ -32348,7 +32348,7 @@
                   <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Select a tracking device from the "Trip Report of" dropdown list                                            </c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 2: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to       Step 3: Input the FROM date by clicking on the calendar of the FROM label for a current TO date </c:v>
                 </c:pt>
                 <c:pt idx="393">
                   <c:v/>
@@ -32603,7 +32603,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
+                  <c:v>Repeat steps of Test Case TC01 of this module then proceed to      Step 3: Input the FROM date and then the TO date from calendar which appears as user click on the doted symbol.</c:v>
                 </c:pt>
                 <c:pt idx="477">
                   <c:v/>
@@ -34095,8 +34095,8 @@
   </sheetPr>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="D83" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
